--- a/docs/Проект на одном листе.xlsx
+++ b/docs/Проект на одном листе.xlsx
@@ -202,9 +202,6 @@
     <t>Апрель, 9</t>
   </si>
   <si>
-    <t>дата: 10.03.2014</t>
-  </si>
-  <si>
     <t>Обсуждение архитектуры проектов, форматов данных.</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t># Численность команды</t>
+  </si>
+  <si>
+    <t>дата: 09.04.2014</t>
   </si>
 </sst>
 </file>
@@ -300,12 +300,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="174" formatCode="#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="185" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="196" formatCode="0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -389,8 +389,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,8 +417,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="66">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1237,14 +1250,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="22"/>
+      </right>
+      <top style="hair">
+        <color indexed="22"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="22"/>
+      </right>
+      <top style="hair">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
@@ -1270,10 +1365,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1305,10 +1400,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1325,10 +1416,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1369,10 +1456,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1411,18 +1494,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1436,10 +1511,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1511,14 +1582,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1574,21 +1645,17 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="196" fontId="12" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="196" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1627,6 +1694,311 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="68" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="66" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1663,14 +2035,6 @@
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1680,261 +2044,201 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal_Project Matrix" xfId="2"/>
     <cellStyle name="Normal_Project Matrix Collection II" xfId="3"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2263,11 +2567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="70"/>
-        <c:axId val="96955392"/>
-        <c:axId val="96961280"/>
+        <c:axId val="40215680"/>
+        <c:axId val="40217216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96955392"/>
+        <c:axId val="40215680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2606,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96961280"/>
+        <c:crossAx val="40217216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2312,7 +2616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96961280"/>
+        <c:axId val="40217216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96955392"/>
+        <c:crossAx val="40215680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3370,7 +3674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3384,14 +3688,14 @@
   <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="7" width="3.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="64.375" style="154" customWidth="1"/>
+    <col min="8" max="8" width="64.375" style="113" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
     <col min="11" max="33" width="5" style="1" customWidth="1"/>
@@ -3405,20 +3709,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="84" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="6"/>
       <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="155"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
@@ -3453,2712 +3757,2681 @@
       <c r="AH2" s="10"/>
       <c r="AI2" s="10"/>
       <c r="AJ2" s="11" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="AL2" s="12"/>
       <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="141" t="s">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="143"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="181"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="181"/>
+      <c r="AJ3" s="182"/>
       <c r="AL3" s="12"/>
       <c r="AM3" s="13"/>
       <c r="AN3" s="13"/>
     </row>
     <row r="4" spans="1:40" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="145"/>
-      <c r="X4" s="145"/>
-      <c r="Y4" s="145"/>
-      <c r="Z4" s="145"/>
-      <c r="AA4" s="145"/>
-      <c r="AB4" s="145"/>
-      <c r="AC4" s="145"/>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
-      <c r="AG4" s="145"/>
-      <c r="AH4" s="145"/>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="146"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="184"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="184"/>
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="184"/>
+      <c r="AA4" s="184"/>
+      <c r="AB4" s="184"/>
+      <c r="AC4" s="184"/>
+      <c r="AD4" s="184"/>
+      <c r="AE4" s="184"/>
+      <c r="AF4" s="184"/>
+      <c r="AG4" s="184"/>
+      <c r="AH4" s="184"/>
+      <c r="AI4" s="184"/>
+      <c r="AJ4" s="185"/>
       <c r="AL4" s="15"/>
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
     </row>
     <row r="5" spans="1:40" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="198"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="156" t="s">
+      <c r="H5" s="115" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="130" t="s">
+      <c r="K5" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="134" t="s">
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="207"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="207"/>
+      <c r="AA5" s="207"/>
+      <c r="AB5" s="207"/>
+      <c r="AC5" s="207"/>
+      <c r="AD5" s="207"/>
+      <c r="AE5" s="207"/>
+      <c r="AF5" s="207"/>
+      <c r="AG5" s="207"/>
+      <c r="AH5" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="133"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="209"/>
       <c r="AL5" s="20"/>
       <c r="AM5" s="21"/>
       <c r="AN5" s="21"/>
     </row>
     <row r="6" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26">
+      <c r="B6" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="105"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25">
         <v>1</v>
       </c>
-      <c r="H6" s="157" t="s">
+      <c r="H6" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="186"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="190" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="142"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
     </row>
     <row r="7" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37">
+      <c r="B7" s="32"/>
+      <c r="C7" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="106"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35">
         <v>2</v>
       </c>
-      <c r="H7" s="158" t="s">
+      <c r="H7" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="187"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="191" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
     </row>
     <row r="8" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37">
+      <c r="B8" s="32"/>
+      <c r="C8" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35">
         <v>3</v>
       </c>
-      <c r="H8" s="159" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="187"/>
-      <c r="AH8" s="192" t="s">
+      <c r="H8" s="161" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="AI8" s="42" t="s">
+      <c r="AI8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AJ8" s="43" t="s">
+      <c r="AJ8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
     </row>
     <row r="9" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="106"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35">
         <v>4</v>
       </c>
-      <c r="H9" s="160" t="s">
+      <c r="H9" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="187"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="191" t="s">
+      <c r="I9" s="36"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="143"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
     </row>
     <row r="10" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="113"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="106"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35">
         <v>5</v>
       </c>
-      <c r="H10" s="160" t="s">
+      <c r="H10" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="187"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="191" t="s">
+      <c r="I10" s="36"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="143"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
     </row>
     <row r="11" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35">
         <v>6</v>
       </c>
-      <c r="H11" s="158" t="s">
+      <c r="H11" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="187"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="191" t="s">
+      <c r="I11" s="36"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="143"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
     </row>
     <row r="12" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35">
         <v>7</v>
       </c>
-      <c r="H12" s="158" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="V12" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="187"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="191" t="s">
+      <c r="H12" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="143"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
     </row>
     <row r="13" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="113" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37">
+      <c r="E13" s="106"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35">
         <v>8</v>
       </c>
-      <c r="H13" s="158" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40" t="s">
+      <c r="H13" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="187"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="191" t="s">
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="143"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
     </row>
     <row r="14" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="113" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37">
+      <c r="E14" s="106"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35">
         <v>9</v>
       </c>
-      <c r="H14" s="158" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40" t="s">
+      <c r="H14" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="187"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="191" t="s">
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
     </row>
     <row r="15" spans="1:40" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="113" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="113"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37">
+      <c r="E15" s="106"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35">
         <v>10</v>
       </c>
-      <c r="H15" s="158" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40" t="s">
+      <c r="H15" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="40" t="s">
+      <c r="Z15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AA15" s="40" t="s">
+      <c r="AA15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="187"/>
-      <c r="AH15" s="192" t="s">
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="43" t="s">
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
     </row>
     <row r="16" spans="1:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="113" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="113"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37">
+      <c r="E16" s="106"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35">
         <v>11</v>
       </c>
-      <c r="H16" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40" t="s">
+      <c r="H16" s="155" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="187"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="191" t="s">
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
     </row>
     <row r="17" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="113" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="113"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37">
+      <c r="E17" s="106"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35">
         <v>12</v>
       </c>
-      <c r="H17" s="161" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40" t="s">
+      <c r="H17" s="155" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="187"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="191" t="s">
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
     </row>
     <row r="18" spans="2:40" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="113" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="113"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37">
+      <c r="E18" s="106"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35">
         <v>13</v>
       </c>
-      <c r="H18" s="161" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40" t="s">
+      <c r="H18" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="187"/>
-      <c r="AH18" s="192" t="s">
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="43" t="s">
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
     </row>
     <row r="19" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37">
+      <c r="B19" s="173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35">
         <v>14</v>
       </c>
-      <c r="H19" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="187"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="193" t="s">
+      <c r="H19" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ19" s="43"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
+      <c r="AJ19" s="40"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
     </row>
     <row r="20" spans="2:40" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37">
+      <c r="B20" s="32"/>
+      <c r="C20" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="106"/>
+      <c r="E20" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35">
         <v>15</v>
       </c>
-      <c r="H20" s="161" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="187"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="193" t="s">
+      <c r="H20" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ20" s="43"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
+      <c r="AJ20" s="40"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
     </row>
     <row r="21" spans="2:40" s="22" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37">
+      <c r="B21" s="32"/>
+      <c r="C21" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="106"/>
+      <c r="E21" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35">
         <v>16</v>
       </c>
-      <c r="H21" s="161" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="187"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="193" t="s">
+      <c r="H21" s="155" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="41"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ21" s="43"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33"/>
+      <c r="AJ21" s="40"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
     </row>
     <row r="22" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35">
         <v>17</v>
       </c>
-      <c r="H22" s="161" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="187"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="193" t="s">
+      <c r="H22" s="155" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="143"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ22" s="43"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
+      <c r="AJ22" s="40"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
     </row>
     <row r="23" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35">
         <v>18</v>
       </c>
-      <c r="H23" s="161" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="187"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="193" t="s">
+      <c r="H23" s="155" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="143"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ23" s="43"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
+      <c r="AJ23" s="40"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
     </row>
     <row r="24" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37">
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35">
         <v>19</v>
       </c>
-      <c r="H24" s="161" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="187"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="193" t="s">
+      <c r="H24" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="41"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="143"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ24" s="43"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
+      <c r="AJ24" s="40"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
     </row>
     <row r="25" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35">
         <v>20</v>
       </c>
-      <c r="H25" s="161" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="187"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="193" t="s">
+      <c r="H25" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="143"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ25" s="43"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="33"/>
-      <c r="AN25" s="33"/>
+      <c r="AJ25" s="40"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
     </row>
     <row r="26" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37">
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35">
         <v>21</v>
       </c>
-      <c r="H26" s="161" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="187"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="193" t="s">
+      <c r="H26" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="143"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ26" s="43"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
+      <c r="AJ26" s="40"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
     </row>
     <row r="27" spans="2:40" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37">
+      <c r="F27" s="34"/>
+      <c r="G27" s="35">
         <v>22</v>
       </c>
-      <c r="H27" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40" t="s">
+      <c r="H27" s="155" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="W27" s="40" t="s">
+      <c r="W27" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X27" s="40" t="s">
+      <c r="X27" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="187"/>
-      <c r="AH27" s="192" t="s">
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="143"/>
+      <c r="AH27" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="AI27" s="42" t="s">
+      <c r="AI27" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AJ27" s="43"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
+      <c r="AJ27" s="40"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
     </row>
     <row r="28" spans="2:40" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="174"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176" t="s">
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="177"/>
-      <c r="G28" s="178">
+      <c r="F28" s="134"/>
+      <c r="G28" s="135">
         <v>23</v>
       </c>
-      <c r="H28" s="179" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="182"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="182"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="182" t="s">
+      <c r="H28" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="137"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="Z28" s="182" t="s">
+      <c r="Z28" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="AA28" s="182"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="182"/>
-      <c r="AD28" s="182"/>
-      <c r="AE28" s="182"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="188"/>
-      <c r="AH28" s="183"/>
-      <c r="AI28" s="193" t="s">
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ28" s="184"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
+      <c r="AJ28" s="140"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
     </row>
     <row r="29" spans="2:40" s="22" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="47" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="45">
         <v>23</v>
       </c>
-      <c r="H29" s="162" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51" t="s">
+      <c r="H29" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AF29" s="51" t="s">
+      <c r="AF29" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AG29" s="189" t="s">
+      <c r="AG29" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="AH29" s="194" t="s">
+      <c r="AH29" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="AI29" s="195" t="s">
+      <c r="AI29" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="AJ29" s="196" t="s">
+      <c r="AJ29" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
     </row>
     <row r="30" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55" t="s">
+      <c r="B30" s="173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="59" t="s">
+      <c r="H30" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="51"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="168"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="168"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="AI30" s="193" t="s">
+      <c r="AI30" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ30" s="193" t="s">
+      <c r="AJ30" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
     </row>
     <row r="31" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37" t="s">
+      <c r="B31" s="173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="41" t="s">
+      <c r="H31" s="155" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="170"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="170"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AI31" s="193" t="s">
+      <c r="AI31" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ31" s="193" t="s">
+      <c r="AJ31" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
     </row>
     <row r="32" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="C32" s="35" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="E32" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="34"/>
+      <c r="G32" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="199" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="200"/>
-      <c r="J32" s="201"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="40"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="193" t="s">
+      <c r="H32" s="190" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="191"/>
+      <c r="J32" s="192"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="170"/>
+      <c r="S32" s="170"/>
+      <c r="T32" s="170"/>
+      <c r="U32" s="170"/>
+      <c r="V32" s="170"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AI32" s="193" t="s">
+      <c r="AI32" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AJ32" s="193" t="s">
+      <c r="AJ32" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
+      <c r="AL32" s="30"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
     </row>
     <row r="33" spans="2:40" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="E33" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="F33" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="161" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="40"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="193" t="s">
+      <c r="H33" s="155" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="170"/>
+      <c r="S33" s="170"/>
+      <c r="T33" s="170"/>
+      <c r="U33" s="170"/>
+      <c r="V33" s="170"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AI33" s="42" t="s">
+      <c r="AI33" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AJ33" s="43" t="s">
+      <c r="AJ33" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
+      <c r="AL33" s="30"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
     </row>
     <row r="34" spans="2:40" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34" s="103"/>
-      <c r="K34" s="151">
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="166"/>
+      <c r="K34" s="158">
         <v>3</v>
       </c>
-      <c r="L34" s="152">
+      <c r="L34" s="111">
         <v>3</v>
       </c>
-      <c r="M34" s="152">
+      <c r="M34" s="111">
         <v>3</v>
       </c>
-      <c r="N34" s="152">
+      <c r="N34" s="111">
         <v>3</v>
       </c>
-      <c r="O34" s="152">
+      <c r="O34" s="111">
         <v>3</v>
       </c>
-      <c r="P34" s="152">
+      <c r="P34" s="111">
         <v>3</v>
       </c>
-      <c r="Q34" s="152">
+      <c r="Q34" s="111">
         <v>3</v>
       </c>
-      <c r="R34" s="152">
+      <c r="R34" s="111">
         <v>3</v>
       </c>
-      <c r="S34" s="152">
+      <c r="S34" s="111">
         <v>3</v>
       </c>
-      <c r="T34" s="152">
+      <c r="T34" s="111">
         <v>3</v>
       </c>
-      <c r="U34" s="152">
+      <c r="U34" s="111">
         <v>3</v>
       </c>
-      <c r="V34" s="152">
+      <c r="V34" s="111">
         <v>3</v>
       </c>
-      <c r="W34" s="152">
+      <c r="W34" s="111">
         <v>3</v>
       </c>
-      <c r="X34" s="152">
+      <c r="X34" s="111">
         <v>3</v>
       </c>
-      <c r="Y34" s="152">
+      <c r="Y34" s="111">
         <v>3</v>
       </c>
-      <c r="Z34" s="152">
+      <c r="Z34" s="111">
         <v>3</v>
       </c>
-      <c r="AA34" s="152">
+      <c r="AA34" s="111">
         <v>3</v>
       </c>
-      <c r="AB34" s="152">
+      <c r="AB34" s="111">
         <v>3</v>
       </c>
-      <c r="AC34" s="152">
+      <c r="AC34" s="111">
         <v>3</v>
       </c>
-      <c r="AD34" s="152">
+      <c r="AD34" s="111">
         <v>3</v>
       </c>
-      <c r="AE34" s="152">
+      <c r="AE34" s="111">
         <v>3</v>
       </c>
-      <c r="AF34" s="152">
+      <c r="AF34" s="111">
         <v>3</v>
       </c>
-      <c r="AG34" s="152">
+      <c r="AG34" s="111">
         <v>3</v>
       </c>
-      <c r="AH34" s="96"/>
-      <c r="AI34" s="97"/>
-      <c r="AJ34" s="98"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
+      <c r="AH34" s="90"/>
+      <c r="AI34" s="91"/>
+      <c r="AJ34" s="92"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
     </row>
     <row r="35" spans="2:40" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="66"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="60"/>
       <c r="AK35" s="1"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="33"/>
+      <c r="AL35" s="30"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
     </row>
     <row r="36" spans="2:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="126" t="s">
+      <c r="B36" s="203" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="D36" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="135" t="s">
+      <c r="E36" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="135" t="s">
+      <c r="F36" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="122" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="128" t="s">
+      <c r="G36" s="65"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="L36" s="128" t="s">
+      <c r="L36" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="M36" s="128" t="s">
+      <c r="M36" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="N36" s="128" t="s">
+      <c r="N36" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="O36" s="128" t="s">
+      <c r="O36" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="P36" s="128" t="s">
+      <c r="P36" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="Q36" s="128" t="s">
+      <c r="Q36" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="R36" s="128" t="s">
+      <c r="R36" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="S36" s="128" t="s">
+      <c r="S36" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="T36" s="128" t="s">
+      <c r="T36" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="U36" s="128" t="s">
+      <c r="U36" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="V36" s="128" t="s">
+      <c r="V36" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="W36" s="128" t="s">
+      <c r="W36" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="X36" s="128" t="s">
+      <c r="X36" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="Y36" s="128" t="s">
+      <c r="Y36" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="Z36" s="128" t="s">
+      <c r="Z36" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="AA36" s="128" t="s">
+      <c r="AA36" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="AB36" s="128" t="s">
+      <c r="AB36" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="AC36" s="128" t="s">
+      <c r="AC36" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="AD36" s="128" t="s">
+      <c r="AD36" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="AE36" s="128" t="s">
+      <c r="AE36" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="AF36" s="128" t="s">
+      <c r="AF36" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="AG36" s="128" t="s">
+      <c r="AG36" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="AH36" s="126" t="s">
+      <c r="AH36" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="AI36" s="149" t="s">
+      <c r="AI36" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="AJ36" s="124" t="s">
+      <c r="AJ36" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
+      <c r="AL36" s="30"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
     </row>
     <row r="37" spans="2:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="126"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="128"/>
-      <c r="X37" s="128"/>
-      <c r="Y37" s="128"/>
-      <c r="Z37" s="128"/>
-      <c r="AA37" s="128"/>
-      <c r="AB37" s="128"/>
-      <c r="AC37" s="128"/>
-      <c r="AD37" s="128"/>
-      <c r="AE37" s="128"/>
-      <c r="AF37" s="128"/>
-      <c r="AG37" s="128"/>
-      <c r="AH37" s="126"/>
-      <c r="AI37" s="149"/>
-      <c r="AJ37" s="124"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="176"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="176"/>
+      <c r="P37" s="176"/>
+      <c r="Q37" s="176"/>
+      <c r="R37" s="176"/>
+      <c r="S37" s="176"/>
+      <c r="T37" s="176"/>
+      <c r="U37" s="176"/>
+      <c r="V37" s="176"/>
+      <c r="W37" s="176"/>
+      <c r="X37" s="176"/>
+      <c r="Y37" s="176"/>
+      <c r="Z37" s="176"/>
+      <c r="AA37" s="176"/>
+      <c r="AB37" s="176"/>
+      <c r="AC37" s="176"/>
+      <c r="AD37" s="176"/>
+      <c r="AE37" s="176"/>
+      <c r="AF37" s="176"/>
+      <c r="AG37" s="176"/>
+      <c r="AH37" s="203"/>
+      <c r="AI37" s="188"/>
+      <c r="AJ37" s="201"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
     </row>
     <row r="38" spans="2:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="126"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="128"/>
-      <c r="Q38" s="128"/>
-      <c r="R38" s="128"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="128"/>
-      <c r="V38" s="128"/>
-      <c r="W38" s="128"/>
-      <c r="X38" s="128"/>
-      <c r="Y38" s="128"/>
-      <c r="Z38" s="128"/>
-      <c r="AA38" s="128"/>
-      <c r="AB38" s="128"/>
-      <c r="AC38" s="128"/>
-      <c r="AD38" s="128"/>
-      <c r="AE38" s="128"/>
-      <c r="AF38" s="128"/>
-      <c r="AG38" s="128"/>
-      <c r="AH38" s="126"/>
-      <c r="AI38" s="149"/>
-      <c r="AJ38" s="124"/>
-      <c r="AL38" s="197"/>
-      <c r="AM38" s="185"/>
-      <c r="AN38" s="185"/>
+      <c r="B38" s="203"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="176"/>
+      <c r="L38" s="176"/>
+      <c r="M38" s="176"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="176"/>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="176"/>
+      <c r="R38" s="176"/>
+      <c r="S38" s="176"/>
+      <c r="T38" s="176"/>
+      <c r="U38" s="176"/>
+      <c r="V38" s="176"/>
+      <c r="W38" s="176"/>
+      <c r="X38" s="176"/>
+      <c r="Y38" s="176"/>
+      <c r="Z38" s="176"/>
+      <c r="AA38" s="176"/>
+      <c r="AB38" s="176"/>
+      <c r="AC38" s="176"/>
+      <c r="AD38" s="176"/>
+      <c r="AE38" s="176"/>
+      <c r="AF38" s="176"/>
+      <c r="AG38" s="176"/>
+      <c r="AH38" s="203"/>
+      <c r="AI38" s="188"/>
+      <c r="AJ38" s="201"/>
+      <c r="AL38" s="153"/>
+      <c r="AM38" s="141"/>
+      <c r="AN38" s="141"/>
     </row>
     <row r="39" spans="2:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="126"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="128"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="128"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="128"/>
-      <c r="U39" s="128"/>
-      <c r="V39" s="128"/>
-      <c r="W39" s="128"/>
-      <c r="X39" s="128"/>
-      <c r="Y39" s="128"/>
-      <c r="Z39" s="128"/>
-      <c r="AA39" s="128"/>
-      <c r="AB39" s="128"/>
-      <c r="AC39" s="128"/>
-      <c r="AD39" s="128"/>
-      <c r="AE39" s="128"/>
-      <c r="AF39" s="128"/>
-      <c r="AG39" s="128"/>
-      <c r="AH39" s="126"/>
-      <c r="AI39" s="149"/>
-      <c r="AJ39" s="124"/>
-      <c r="AM39" s="33"/>
-      <c r="AN39" s="33"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="176"/>
+      <c r="L39" s="176"/>
+      <c r="M39" s="176"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="176"/>
+      <c r="P39" s="176"/>
+      <c r="Q39" s="176"/>
+      <c r="R39" s="176"/>
+      <c r="S39" s="176"/>
+      <c r="T39" s="176"/>
+      <c r="U39" s="176"/>
+      <c r="V39" s="176"/>
+      <c r="W39" s="176"/>
+      <c r="X39" s="176"/>
+      <c r="Y39" s="176"/>
+      <c r="Z39" s="176"/>
+      <c r="AA39" s="176"/>
+      <c r="AB39" s="176"/>
+      <c r="AC39" s="176"/>
+      <c r="AD39" s="176"/>
+      <c r="AE39" s="176"/>
+      <c r="AF39" s="176"/>
+      <c r="AG39" s="176"/>
+      <c r="AH39" s="203"/>
+      <c r="AI39" s="188"/>
+      <c r="AJ39" s="201"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
     </row>
     <row r="40" spans="2:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="126"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="128"/>
-      <c r="O40" s="128"/>
-      <c r="P40" s="128"/>
-      <c r="Q40" s="128"/>
-      <c r="R40" s="128"/>
-      <c r="S40" s="128"/>
-      <c r="T40" s="128"/>
-      <c r="U40" s="128"/>
-      <c r="V40" s="128"/>
-      <c r="W40" s="128"/>
-      <c r="X40" s="128"/>
-      <c r="Y40" s="128"/>
-      <c r="Z40" s="128"/>
-      <c r="AA40" s="128"/>
-      <c r="AB40" s="128"/>
-      <c r="AC40" s="128"/>
-      <c r="AD40" s="128"/>
-      <c r="AE40" s="128"/>
-      <c r="AF40" s="128"/>
-      <c r="AG40" s="128"/>
-      <c r="AH40" s="126"/>
-      <c r="AI40" s="149"/>
-      <c r="AJ40" s="124"/>
-      <c r="AM40" s="33"/>
-      <c r="AN40" s="33"/>
+      <c r="B40" s="203"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="199"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="176"/>
+      <c r="N40" s="176"/>
+      <c r="O40" s="176"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="176"/>
+      <c r="R40" s="176"/>
+      <c r="S40" s="176"/>
+      <c r="T40" s="176"/>
+      <c r="U40" s="176"/>
+      <c r="V40" s="176"/>
+      <c r="W40" s="176"/>
+      <c r="X40" s="176"/>
+      <c r="Y40" s="176"/>
+      <c r="Z40" s="176"/>
+      <c r="AA40" s="176"/>
+      <c r="AB40" s="176"/>
+      <c r="AC40" s="176"/>
+      <c r="AD40" s="176"/>
+      <c r="AE40" s="176"/>
+      <c r="AF40" s="176"/>
+      <c r="AG40" s="176"/>
+      <c r="AH40" s="203"/>
+      <c r="AI40" s="188"/>
+      <c r="AJ40" s="201"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
     </row>
     <row r="41" spans="2:40" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="126"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="169"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="129"/>
-      <c r="T41" s="129"/>
-      <c r="U41" s="129"/>
-      <c r="V41" s="129"/>
-      <c r="W41" s="129"/>
-      <c r="X41" s="129"/>
-      <c r="Y41" s="129"/>
-      <c r="Z41" s="129"/>
-      <c r="AA41" s="129"/>
-      <c r="AB41" s="129"/>
-      <c r="AC41" s="129"/>
-      <c r="AD41" s="129"/>
-      <c r="AE41" s="129"/>
-      <c r="AF41" s="129"/>
-      <c r="AG41" s="129"/>
-      <c r="AH41" s="127"/>
-      <c r="AI41" s="150"/>
-      <c r="AJ41" s="125"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="177"/>
+      <c r="T41" s="177"/>
+      <c r="U41" s="177"/>
+      <c r="V41" s="177"/>
+      <c r="W41" s="177"/>
+      <c r="X41" s="177"/>
+      <c r="Y41" s="177"/>
+      <c r="Z41" s="177"/>
+      <c r="AA41" s="177"/>
+      <c r="AB41" s="177"/>
+      <c r="AC41" s="177"/>
+      <c r="AD41" s="177"/>
+      <c r="AE41" s="177"/>
+      <c r="AF41" s="177"/>
+      <c r="AG41" s="177"/>
+      <c r="AH41" s="204"/>
+      <c r="AI41" s="189"/>
+      <c r="AJ41" s="202"/>
       <c r="AL41" s="20"/>
       <c r="AM41" s="20"/>
       <c r="AN41" s="20"/>
     </row>
     <row r="42" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B42" s="126"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="73"/>
-      <c r="AA42" s="73"/>
-      <c r="AB42" s="73"/>
-      <c r="AC42" s="73"/>
-      <c r="AD42" s="73"/>
-      <c r="AE42" s="73"/>
-      <c r="AF42" s="73"/>
-      <c r="AG42" s="73"/>
-      <c r="AH42" s="73"/>
-      <c r="AI42" s="73"/>
-      <c r="AJ42" s="74"/>
+      <c r="B42" s="203"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="174"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="67"/>
+      <c r="AE42" s="67"/>
+      <c r="AF42" s="67"/>
+      <c r="AG42" s="67"/>
+      <c r="AH42" s="67"/>
+      <c r="AI42" s="67"/>
+      <c r="AJ42" s="68"/>
       <c r="AL42" s="20"/>
-      <c r="AM42" s="118" t="s">
+      <c r="AM42" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="AN42" s="118"/>
+      <c r="AN42" s="195"/>
     </row>
     <row r="43" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="126"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="77"/>
-      <c r="S43" s="77"/>
-      <c r="T43" s="77"/>
-      <c r="U43" s="77"/>
-      <c r="V43" s="77"/>
-      <c r="W43" s="77"/>
-      <c r="X43" s="77"/>
-      <c r="Y43" s="77"/>
-      <c r="Z43" s="77"/>
-      <c r="AA43" s="77"/>
-      <c r="AB43" s="77"/>
-      <c r="AC43" s="77"/>
-      <c r="AD43" s="77"/>
-      <c r="AE43" s="77"/>
-      <c r="AF43" s="77"/>
-      <c r="AG43" s="77"/>
-      <c r="AH43" s="77"/>
-      <c r="AI43" s="77"/>
-      <c r="AJ43" s="78"/>
-      <c r="AL43" s="79" t="s">
+      <c r="B43" s="203"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="174"/>
+      <c r="F43" s="199"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="71"/>
+      <c r="AD43" s="71"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="71"/>
+      <c r="AG43" s="71"/>
+      <c r="AH43" s="71"/>
+      <c r="AI43" s="71"/>
+      <c r="AJ43" s="72"/>
+      <c r="AL43" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AM43" s="80" t="s">
+      <c r="AM43" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AN43" s="80" t="s">
+      <c r="AN43" s="74" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="126"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="77"/>
-      <c r="S44" s="77"/>
-      <c r="T44" s="77"/>
-      <c r="U44" s="77"/>
-      <c r="V44" s="77"/>
-      <c r="W44" s="77"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="77"/>
-      <c r="Z44" s="77"/>
-      <c r="AA44" s="77"/>
-      <c r="AB44" s="77"/>
-      <c r="AC44" s="77"/>
-      <c r="AD44" s="77"/>
-      <c r="AE44" s="77"/>
-      <c r="AF44" s="77"/>
-      <c r="AG44" s="77"/>
-      <c r="AH44" s="77"/>
-      <c r="AI44" s="77"/>
-      <c r="AJ44" s="78"/>
+      <c r="B44" s="203"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="174"/>
+      <c r="F44" s="199"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="71"/>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="71"/>
+      <c r="AI44" s="71"/>
+      <c r="AJ44" s="72"/>
       <c r="AL44" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AM44" s="81">
+      <c r="AM44" s="75">
         <v>124</v>
       </c>
-      <c r="AN44" s="81">
+      <c r="AN44" s="75">
         <v>124</v>
       </c>
     </row>
     <row r="45" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="126"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="166"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="77"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="77"/>
-      <c r="U45" s="77"/>
-      <c r="V45" s="77"/>
-      <c r="W45" s="77"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="77"/>
-      <c r="Z45" s="77"/>
-      <c r="AA45" s="77"/>
-      <c r="AB45" s="77"/>
-      <c r="AC45" s="77"/>
-      <c r="AD45" s="77"/>
-      <c r="AE45" s="77"/>
-      <c r="AF45" s="77"/>
-      <c r="AG45" s="77"/>
-      <c r="AH45" s="77"/>
-      <c r="AI45" s="77"/>
-      <c r="AJ45" s="78"/>
+      <c r="B45" s="203"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="199"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="71"/>
+      <c r="AF45" s="71"/>
+      <c r="AG45" s="71"/>
+      <c r="AH45" s="71"/>
+      <c r="AI45" s="71"/>
+      <c r="AJ45" s="72"/>
       <c r="AL45" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AM45" s="81">
+      <c r="AM45" s="75">
         <v>0</v>
       </c>
-      <c r="AN45" s="83">
+      <c r="AN45" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B46" s="126"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="77"/>
-      <c r="R46" s="77"/>
-      <c r="S46" s="77"/>
-      <c r="T46" s="77"/>
-      <c r="U46" s="77"/>
-      <c r="V46" s="77"/>
-      <c r="W46" s="77"/>
-      <c r="X46" s="77"/>
-      <c r="Y46" s="77"/>
-      <c r="Z46" s="77"/>
-      <c r="AA46" s="77"/>
-      <c r="AB46" s="77"/>
-      <c r="AC46" s="77"/>
-      <c r="AD46" s="77"/>
-      <c r="AE46" s="77"/>
-      <c r="AF46" s="77"/>
-      <c r="AG46" s="77"/>
-      <c r="AH46" s="77"/>
-      <c r="AI46" s="77"/>
-      <c r="AJ46" s="78"/>
+      <c r="B46" s="203"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="174"/>
+      <c r="E46" s="174"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="71"/>
+      <c r="AA46" s="71"/>
+      <c r="AB46" s="71"/>
+      <c r="AC46" s="71"/>
+      <c r="AD46" s="71"/>
+      <c r="AE46" s="71"/>
+      <c r="AF46" s="71"/>
+      <c r="AG46" s="71"/>
+      <c r="AH46" s="71"/>
+      <c r="AI46" s="71"/>
+      <c r="AJ46" s="72"/>
       <c r="AL46" s="20"/>
-      <c r="AM46" s="81"/>
-      <c r="AN46" s="81"/>
+      <c r="AM46" s="75"/>
+      <c r="AN46" s="75"/>
     </row>
     <row r="47" spans="2:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="126"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="77"/>
-      <c r="Q47" s="77"/>
-      <c r="R47" s="77"/>
-      <c r="S47" s="77"/>
-      <c r="T47" s="77"/>
-      <c r="U47" s="77"/>
-      <c r="V47" s="77"/>
-      <c r="W47" s="77"/>
-      <c r="X47" s="77"/>
-      <c r="Y47" s="77"/>
-      <c r="Z47" s="77"/>
-      <c r="AA47" s="77"/>
-      <c r="AB47" s="77"/>
-      <c r="AC47" s="77"/>
-      <c r="AD47" s="77"/>
-      <c r="AE47" s="77"/>
-      <c r="AF47" s="77"/>
-      <c r="AG47" s="77"/>
-      <c r="AH47" s="77"/>
-      <c r="AI47" s="77"/>
-      <c r="AJ47" s="78"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="199"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
+      <c r="V47" s="71"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
+      <c r="Z47" s="71"/>
+      <c r="AA47" s="71"/>
+      <c r="AB47" s="71"/>
+      <c r="AC47" s="71"/>
+      <c r="AD47" s="71"/>
+      <c r="AE47" s="71"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="71"/>
+      <c r="AH47" s="71"/>
+      <c r="AI47" s="71"/>
+      <c r="AJ47" s="72"/>
       <c r="AL47" s="20"/>
-      <c r="AM47" s="84"/>
+      <c r="AM47" s="78"/>
     </row>
     <row r="48" spans="2:40" ht="202.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="126"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="87"/>
-      <c r="W48" s="87"/>
-      <c r="X48" s="87"/>
-      <c r="Y48" s="87"/>
-      <c r="Z48" s="87"/>
-      <c r="AA48" s="87"/>
-      <c r="AB48" s="87"/>
-      <c r="AC48" s="87"/>
-      <c r="AD48" s="87"/>
-      <c r="AE48" s="87"/>
-      <c r="AF48" s="87"/>
-      <c r="AG48" s="87"/>
-      <c r="AH48" s="87"/>
-      <c r="AI48" s="87"/>
-      <c r="AJ48" s="88"/>
-      <c r="AM48" s="84"/>
-      <c r="AN48" s="84"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
+      <c r="E48" s="174"/>
+      <c r="F48" s="199"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="81"/>
+      <c r="AA48" s="81"/>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="81"/>
+      <c r="AD48" s="81"/>
+      <c r="AE48" s="81"/>
+      <c r="AF48" s="81"/>
+      <c r="AG48" s="81"/>
+      <c r="AH48" s="81"/>
+      <c r="AI48" s="81"/>
+      <c r="AJ48" s="82"/>
+      <c r="AM48" s="78"/>
+      <c r="AN48" s="78"/>
     </row>
     <row r="49" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B49" s="126"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="137" t="s">
+      <c r="B49" s="203"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="199"/>
+      <c r="G49" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="137"/>
-      <c r="L49" s="137"/>
-      <c r="M49" s="137"/>
-      <c r="N49" s="137"/>
-      <c r="O49" s="137"/>
-      <c r="P49" s="137"/>
-      <c r="Q49" s="137"/>
-      <c r="R49" s="137"/>
-      <c r="S49" s="137"/>
-      <c r="T49" s="137"/>
-      <c r="U49" s="137"/>
-      <c r="V49" s="137"/>
-      <c r="W49" s="137"/>
-      <c r="X49" s="137"/>
-      <c r="Y49" s="137"/>
-      <c r="Z49" s="137"/>
-      <c r="AA49" s="137"/>
-      <c r="AB49" s="137"/>
-      <c r="AC49" s="137"/>
-      <c r="AD49" s="137"/>
-      <c r="AE49" s="137"/>
-      <c r="AF49" s="137"/>
-      <c r="AG49" s="137"/>
-      <c r="AH49" s="137"/>
-      <c r="AI49" s="137"/>
-      <c r="AJ49" s="138"/>
+      <c r="H49" s="193"/>
+      <c r="I49" s="193"/>
+      <c r="J49" s="193"/>
+      <c r="K49" s="193"/>
+      <c r="L49" s="193"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="193"/>
+      <c r="O49" s="193"/>
+      <c r="P49" s="193"/>
+      <c r="Q49" s="193"/>
+      <c r="R49" s="193"/>
+      <c r="S49" s="193"/>
+      <c r="T49" s="193"/>
+      <c r="U49" s="193"/>
+      <c r="V49" s="193"/>
+      <c r="W49" s="193"/>
+      <c r="X49" s="193"/>
+      <c r="Y49" s="193"/>
+      <c r="Z49" s="193"/>
+      <c r="AA49" s="193"/>
+      <c r="AB49" s="193"/>
+      <c r="AC49" s="193"/>
+      <c r="AD49" s="193"/>
+      <c r="AE49" s="193"/>
+      <c r="AF49" s="193"/>
+      <c r="AG49" s="193"/>
+      <c r="AH49" s="193"/>
+      <c r="AI49" s="193"/>
+      <c r="AJ49" s="194"/>
     </row>
     <row r="50" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B50" s="126"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="139" t="s">
+      <c r="B50" s="203"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="174"/>
+      <c r="E50" s="174"/>
+      <c r="F50" s="199"/>
+      <c r="G50" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
-      <c r="O50" s="139"/>
-      <c r="P50" s="139"/>
-      <c r="Q50" s="139"/>
-      <c r="R50" s="139"/>
-      <c r="S50" s="139"/>
-      <c r="T50" s="139"/>
-      <c r="U50" s="139"/>
-      <c r="V50" s="139"/>
-      <c r="W50" s="139"/>
-      <c r="X50" s="139"/>
-      <c r="Y50" s="139"/>
-      <c r="Z50" s="139"/>
-      <c r="AA50" s="139"/>
-      <c r="AB50" s="139"/>
-      <c r="AC50" s="139"/>
-      <c r="AD50" s="139"/>
-      <c r="AE50" s="139"/>
-      <c r="AF50" s="139"/>
-      <c r="AG50" s="139"/>
-      <c r="AH50" s="139"/>
-      <c r="AI50" s="139"/>
-      <c r="AJ50" s="140"/>
+      <c r="H50" s="186"/>
+      <c r="I50" s="186"/>
+      <c r="J50" s="186"/>
+      <c r="K50" s="186"/>
+      <c r="L50" s="186"/>
+      <c r="M50" s="186"/>
+      <c r="N50" s="186"/>
+      <c r="O50" s="186"/>
+      <c r="P50" s="186"/>
+      <c r="Q50" s="186"/>
+      <c r="R50" s="186"/>
+      <c r="S50" s="186"/>
+      <c r="T50" s="186"/>
+      <c r="U50" s="186"/>
+      <c r="V50" s="186"/>
+      <c r="W50" s="186"/>
+      <c r="X50" s="186"/>
+      <c r="Y50" s="186"/>
+      <c r="Z50" s="186"/>
+      <c r="AA50" s="186"/>
+      <c r="AB50" s="186"/>
+      <c r="AC50" s="186"/>
+      <c r="AD50" s="186"/>
+      <c r="AE50" s="186"/>
+      <c r="AF50" s="186"/>
+      <c r="AG50" s="186"/>
+      <c r="AH50" s="186"/>
+      <c r="AI50" s="186"/>
+      <c r="AJ50" s="187"/>
     </row>
     <row r="51" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B51" s="126"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="139"/>
-      <c r="L51" s="139"/>
-      <c r="M51" s="139"/>
-      <c r="N51" s="139"/>
-      <c r="O51" s="139"/>
-      <c r="P51" s="139"/>
-      <c r="Q51" s="139"/>
-      <c r="R51" s="139"/>
-      <c r="S51" s="139"/>
-      <c r="T51" s="139"/>
-      <c r="U51" s="139"/>
-      <c r="V51" s="139"/>
-      <c r="W51" s="139"/>
-      <c r="X51" s="139"/>
-      <c r="Y51" s="139"/>
-      <c r="Z51" s="139"/>
-      <c r="AA51" s="139"/>
-      <c r="AB51" s="139"/>
-      <c r="AC51" s="139"/>
-      <c r="AD51" s="139"/>
-      <c r="AE51" s="139"/>
-      <c r="AF51" s="139"/>
-      <c r="AG51" s="139"/>
-      <c r="AH51" s="139"/>
-      <c r="AI51" s="139"/>
-      <c r="AJ51" s="140"/>
+      <c r="B51" s="203"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="174"/>
+      <c r="E51" s="174"/>
+      <c r="F51" s="199"/>
+      <c r="G51" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
+      <c r="J51" s="186"/>
+      <c r="K51" s="186"/>
+      <c r="L51" s="186"/>
+      <c r="M51" s="186"/>
+      <c r="N51" s="186"/>
+      <c r="O51" s="186"/>
+      <c r="P51" s="186"/>
+      <c r="Q51" s="186"/>
+      <c r="R51" s="186"/>
+      <c r="S51" s="186"/>
+      <c r="T51" s="186"/>
+      <c r="U51" s="186"/>
+      <c r="V51" s="186"/>
+      <c r="W51" s="186"/>
+      <c r="X51" s="186"/>
+      <c r="Y51" s="186"/>
+      <c r="Z51" s="186"/>
+      <c r="AA51" s="186"/>
+      <c r="AB51" s="186"/>
+      <c r="AC51" s="186"/>
+      <c r="AD51" s="186"/>
+      <c r="AE51" s="186"/>
+      <c r="AF51" s="186"/>
+      <c r="AG51" s="186"/>
+      <c r="AH51" s="186"/>
+      <c r="AI51" s="186"/>
+      <c r="AJ51" s="187"/>
     </row>
     <row r="52" spans="2:40" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="127"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147"/>
-      <c r="N52" s="147"/>
-      <c r="O52" s="147"/>
-      <c r="P52" s="147"/>
-      <c r="Q52" s="147"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="147"/>
-      <c r="U52" s="147"/>
-      <c r="V52" s="147"/>
-      <c r="W52" s="147"/>
-      <c r="X52" s="147"/>
-      <c r="Y52" s="147"/>
-      <c r="Z52" s="147"/>
-      <c r="AA52" s="147"/>
-      <c r="AB52" s="147"/>
-      <c r="AC52" s="147"/>
-      <c r="AD52" s="147"/>
-      <c r="AE52" s="147"/>
-      <c r="AF52" s="147"/>
-      <c r="AG52" s="147"/>
-      <c r="AH52" s="147"/>
-      <c r="AI52" s="147"/>
-      <c r="AJ52" s="148"/>
+      <c r="B52" s="204"/>
+      <c r="C52" s="175"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="175"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="178"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="178"/>
+      <c r="L52" s="178"/>
+      <c r="M52" s="178"/>
+      <c r="N52" s="178"/>
+      <c r="O52" s="178"/>
+      <c r="P52" s="178"/>
+      <c r="Q52" s="178"/>
+      <c r="R52" s="178"/>
+      <c r="S52" s="178"/>
+      <c r="T52" s="178"/>
+      <c r="U52" s="178"/>
+      <c r="V52" s="178"/>
+      <c r="W52" s="178"/>
+      <c r="X52" s="178"/>
+      <c r="Y52" s="178"/>
+      <c r="Z52" s="178"/>
+      <c r="AA52" s="178"/>
+      <c r="AB52" s="178"/>
+      <c r="AC52" s="178"/>
+      <c r="AD52" s="178"/>
+      <c r="AE52" s="178"/>
+      <c r="AF52" s="178"/>
+      <c r="AG52" s="178"/>
+      <c r="AH52" s="178"/>
+      <c r="AI52" s="178"/>
+      <c r="AJ52" s="179"/>
       <c r="AL52" s="20"/>
       <c r="AM52" s="21"/>
       <c r="AN52" s="21"/>
     </row>
     <row r="53" spans="2:40" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H53" s="172"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
+      <c r="H53" s="129"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
       <c r="AL53" s="20"/>
       <c r="AM53" s="21"/>
       <c r="AN53" s="21"/>
     </row>
     <row r="54" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
       <c r="L54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M54" s="99">
+      <c r="M54" s="93">
         <v>152</v>
       </c>
-      <c r="N54" s="99">
+      <c r="N54" s="93">
         <v>153</v>
       </c>
-      <c r="O54" s="104" t="s">
+      <c r="O54" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="P54" s="104" t="s">
+      <c r="P54" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="Q54" s="153"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="101"/>
-      <c r="U54" s="101"/>
-      <c r="V54" s="101"/>
-      <c r="W54" s="101"/>
-      <c r="X54" s="101"/>
-      <c r="Y54" s="101"/>
-      <c r="Z54" s="101"/>
-      <c r="AA54" s="101"/>
-      <c r="AB54" s="101"/>
-      <c r="AC54" s="101"/>
-      <c r="AD54" s="101"/>
-      <c r="AE54" s="101"/>
-      <c r="AF54" s="101"/>
-      <c r="AG54" s="101"/>
-      <c r="AH54" s="101"/>
-      <c r="AI54" s="101"/>
-      <c r="AJ54" s="101"/>
-      <c r="AK54" s="101"/>
-      <c r="AL54" s="101"/>
-      <c r="AM54" s="101"/>
-      <c r="AN54" s="101"/>
+      <c r="Q54" s="112"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="95"/>
+      <c r="W54" s="95"/>
+      <c r="X54" s="95"/>
+      <c r="Y54" s="95"/>
+      <c r="Z54" s="95"/>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="95"/>
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="95"/>
+      <c r="AE54" s="95"/>
+      <c r="AF54" s="95"/>
+      <c r="AG54" s="95"/>
+      <c r="AH54" s="95"/>
+      <c r="AI54" s="95"/>
+      <c r="AJ54" s="95"/>
+      <c r="AK54" s="95"/>
+      <c r="AL54" s="95"/>
+      <c r="AM54" s="95"/>
+      <c r="AN54" s="95"/>
     </row>
     <row r="55" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
       <c r="L55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M55" s="89" t="s">
+      <c r="M55" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="N55" s="51" t="s">
+      <c r="N55" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O55" s="51" t="s">
+      <c r="O55" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="P55" s="51" t="s">
+      <c r="P55" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q55" s="102"/>
-      <c r="R55" s="102"/>
-      <c r="S55" s="102"/>
-      <c r="T55" s="102"/>
-      <c r="U55" s="102"/>
-      <c r="V55" s="102"/>
-      <c r="W55" s="102"/>
-      <c r="X55" s="102"/>
-      <c r="Y55" s="102"/>
-      <c r="Z55" s="102"/>
-      <c r="AA55" s="102"/>
-      <c r="AB55" s="102"/>
-      <c r="AC55" s="102"/>
-      <c r="AD55" s="102"/>
-      <c r="AE55" s="102"/>
-      <c r="AF55" s="102"/>
-      <c r="AG55" s="102"/>
-      <c r="AH55" s="102"/>
-      <c r="AI55" s="102"/>
-      <c r="AJ55" s="102"/>
-      <c r="AK55" s="102"/>
-      <c r="AL55" s="102"/>
-      <c r="AM55" s="102"/>
-      <c r="AN55" s="102"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="96"/>
+      <c r="V55" s="96"/>
+      <c r="W55" s="96"/>
+      <c r="X55" s="96"/>
+      <c r="Y55" s="96"/>
+      <c r="Z55" s="96"/>
+      <c r="AA55" s="96"/>
+      <c r="AB55" s="96"/>
+      <c r="AC55" s="96"/>
+      <c r="AD55" s="96"/>
+      <c r="AE55" s="96"/>
+      <c r="AF55" s="96"/>
+      <c r="AG55" s="96"/>
+      <c r="AH55" s="96"/>
+      <c r="AI55" s="96"/>
+      <c r="AJ55" s="96"/>
+      <c r="AK55" s="96"/>
+      <c r="AL55" s="96"/>
+      <c r="AM55" s="96"/>
+      <c r="AN55" s="96"/>
     </row>
     <row r="56" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="100"/>
-      <c r="M56" s="100"/>
-      <c r="N56" s="100"/>
-      <c r="O56" s="100"/>
-      <c r="P56" s="100"/>
-      <c r="Q56" s="100"/>
-      <c r="R56" s="100"/>
-      <c r="S56" s="100"/>
-      <c r="T56" s="100"/>
-      <c r="U56" s="100"/>
-      <c r="V56" s="100"/>
-      <c r="W56" s="100"/>
-      <c r="X56" s="100"/>
-      <c r="Y56" s="100"/>
-      <c r="Z56" s="100"/>
-      <c r="AA56" s="100"/>
-      <c r="AB56" s="100"/>
-      <c r="AC56" s="100"/>
-      <c r="AD56" s="100"/>
-      <c r="AE56" s="100"/>
-      <c r="AF56" s="100"/>
-      <c r="AG56" s="100"/>
-      <c r="AH56" s="100"/>
-      <c r="AI56" s="100"/>
-      <c r="AJ56" s="100"/>
-      <c r="AK56" s="100"/>
-      <c r="AL56" s="100"/>
-      <c r="AM56" s="100"/>
-      <c r="AN56" s="100"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="94"/>
+      <c r="T56" s="94"/>
+      <c r="U56" s="94"/>
+      <c r="V56" s="94"/>
+      <c r="W56" s="94"/>
+      <c r="X56" s="94"/>
+      <c r="Y56" s="94"/>
+      <c r="Z56" s="94"/>
+      <c r="AA56" s="94"/>
+      <c r="AB56" s="94"/>
+      <c r="AC56" s="94"/>
+      <c r="AD56" s="94"/>
+      <c r="AE56" s="94"/>
+      <c r="AF56" s="94"/>
+      <c r="AG56" s="94"/>
+      <c r="AH56" s="94"/>
+      <c r="AI56" s="94"/>
+      <c r="AJ56" s="94"/>
+      <c r="AK56" s="94"/>
+      <c r="AL56" s="94"/>
+      <c r="AM56" s="94"/>
+      <c r="AN56" s="94"/>
     </row>
     <row r="57" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="90"/>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="90"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
-      <c r="X57" s="90"/>
-      <c r="Y57" s="90"/>
-      <c r="Z57" s="90"/>
-      <c r="AA57" s="90"/>
-      <c r="AB57" s="90"/>
-      <c r="AC57" s="90"/>
-      <c r="AD57" s="90"/>
-      <c r="AE57" s="90"/>
-      <c r="AF57" s="90"/>
-      <c r="AG57" s="90"/>
-      <c r="AH57" s="90"/>
-      <c r="AI57" s="90"/>
-      <c r="AJ57" s="90"/>
-      <c r="AK57" s="90"/>
-      <c r="AL57" s="90"/>
-      <c r="AM57" s="90"/>
-      <c r="AN57" s="90"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
+      <c r="Q57" s="84"/>
+      <c r="R57" s="84"/>
+      <c r="S57" s="84"/>
+      <c r="T57" s="84"/>
+      <c r="U57" s="84"/>
+      <c r="V57" s="84"/>
+      <c r="W57" s="84"/>
+      <c r="X57" s="84"/>
+      <c r="Y57" s="84"/>
+      <c r="Z57" s="84"/>
+      <c r="AA57" s="84"/>
+      <c r="AB57" s="84"/>
+      <c r="AC57" s="84"/>
+      <c r="AD57" s="84"/>
+      <c r="AE57" s="84"/>
+      <c r="AF57" s="84"/>
+      <c r="AG57" s="84"/>
+      <c r="AH57" s="84"/>
+      <c r="AI57" s="84"/>
+      <c r="AJ57" s="84"/>
+      <c r="AK57" s="84"/>
+      <c r="AL57" s="84"/>
+      <c r="AM57" s="84"/>
+      <c r="AN57" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AB36:AB41"/>
-    <mergeCell ref="AC36:AC41"/>
-    <mergeCell ref="AD36:AD41"/>
-    <mergeCell ref="AE36:AE41"/>
-    <mergeCell ref="AF36:AF41"/>
-    <mergeCell ref="D36:D52"/>
-    <mergeCell ref="E36:E52"/>
-    <mergeCell ref="S36:S41"/>
-    <mergeCell ref="U36:U41"/>
-    <mergeCell ref="W36:W41"/>
-    <mergeCell ref="Y36:Y41"/>
-    <mergeCell ref="Z36:Z41"/>
-    <mergeCell ref="AA36:AA41"/>
-    <mergeCell ref="G3:AJ4"/>
-    <mergeCell ref="G51:AJ51"/>
-    <mergeCell ref="G52:AJ52"/>
-    <mergeCell ref="V36:V41"/>
-    <mergeCell ref="AI36:AI41"/>
-    <mergeCell ref="AG36:AG41"/>
-    <mergeCell ref="Q36:Q41"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="C36:C52"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="M36:M41"/>
-    <mergeCell ref="X36:X41"/>
-    <mergeCell ref="O36:O41"/>
-    <mergeCell ref="P36:P41"/>
-    <mergeCell ref="N36:N41"/>
-    <mergeCell ref="T36:T41"/>
-    <mergeCell ref="G49:AJ49"/>
-    <mergeCell ref="G50:AJ50"/>
     <mergeCell ref="AM42:AN42"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="F36:F52"/>
@@ -6169,54 +6442,151 @@
     <mergeCell ref="K5:AG5"/>
     <mergeCell ref="AH5:AJ5"/>
     <mergeCell ref="B36:B52"/>
+    <mergeCell ref="C36:C52"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="M36:M41"/>
+    <mergeCell ref="X36:X41"/>
+    <mergeCell ref="O36:O41"/>
+    <mergeCell ref="P36:P41"/>
+    <mergeCell ref="G3:AJ4"/>
+    <mergeCell ref="G51:AJ51"/>
+    <mergeCell ref="V36:V41"/>
+    <mergeCell ref="AI36:AI41"/>
+    <mergeCell ref="AG36:AG41"/>
+    <mergeCell ref="Q36:Q41"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="N36:N41"/>
+    <mergeCell ref="T36:T41"/>
+    <mergeCell ref="G49:AJ49"/>
+    <mergeCell ref="G50:AJ50"/>
+    <mergeCell ref="Y36:Y41"/>
+    <mergeCell ref="Z36:Z41"/>
+    <mergeCell ref="AA36:AA41"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="E36:E52"/>
+    <mergeCell ref="S36:S41"/>
+    <mergeCell ref="U36:U41"/>
+    <mergeCell ref="W36:W41"/>
+    <mergeCell ref="G52:AJ52"/>
+    <mergeCell ref="AB36:AB41"/>
+    <mergeCell ref="AC36:AC41"/>
+    <mergeCell ref="AD36:AD41"/>
+    <mergeCell ref="AE36:AE41"/>
+    <mergeCell ref="AF36:AF41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AH35:AJ35">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="19" stopIfTrue="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:AG35">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:K55 O55:AN55">
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:AG34">
-    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K8:N8 N6:AG6 K20:L20 M19:AG19 K27:AG34 K21:M21 O21:AG21 K7:M7 O7:AG7 K13:AG18 K11:R11 U11:AG11 K10:Q10 S10:AG10 K9:O9 R9:AG9 P8:AG8 N20:AG20 K22:O22 R22:AG22 K23:Q23 S23:AG23 K24:R24 T24:AG24 K12:T12 W12:AG12 K25:S25 U25:AG25 K26:T26 V26:AG26">
+    <cfRule type="cellIs" dxfId="20" priority="29" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
